--- a/uploaded/pok/POK 2017.xlsx
+++ b/uploaded/pok/POK 2017.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\_muh.shamad\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\simamov\uploaded\pok\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE5A090-F307-4C52-A871-D75F997FE762}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView minimized="1" xWindow="5076" yWindow="228" windowWidth="11508" windowHeight="7344" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="POKREV5" sheetId="1" r:id="rId1"/>
@@ -1797,7 +1798,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2108,25 +2109,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G545"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.6640625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="1" customWidth="1"/>
+    <col min="7" max="7" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2149,7 +2150,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2172,7 +2173,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2195,7 +2196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2888.0010000000002</v>
       </c>
@@ -2218,7 +2219,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -2241,7 +2242,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>521211</v>
       </c>
@@ -2264,7 +2265,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2287,7 +2288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2310,7 +2311,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2333,7 +2334,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2356,7 +2357,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2379,7 +2380,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2402,7 +2403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -2425,7 +2426,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -2448,7 +2449,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -2471,7 +2472,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -2494,7 +2495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -2517,7 +2518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -2540,7 +2541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -2563,7 +2564,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -2586,7 +2587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -2609,7 +2610,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -2632,7 +2633,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -2655,7 +2656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -2678,7 +2679,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -2701,7 +2702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -2724,7 +2725,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -2747,7 +2748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -2770,7 +2771,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -2793,7 +2794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -2816,7 +2817,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -2839,7 +2840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -2862,7 +2863,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -2885,7 +2886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -2908,7 +2909,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -2931,7 +2932,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -2954,7 +2955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -2977,7 +2978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>59</v>
       </c>
@@ -3000,7 +3001,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -3023,7 +3024,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -3046,7 +3047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -3069,7 +3070,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -3092,7 +3093,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -3115,7 +3116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -3138,7 +3139,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -3161,7 +3162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>68</v>
       </c>
@@ -3184,7 +3185,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -3207,7 +3208,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -3230,7 +3231,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>72</v>
       </c>
@@ -3253,7 +3254,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -3276,7 +3277,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -3299,7 +3300,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -3322,7 +3323,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -3345,7 +3346,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -3368,7 +3369,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -3391,7 +3392,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -3414,7 +3415,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -3437,7 +3438,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -3460,7 +3461,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -3483,7 +3484,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>83</v>
       </c>
@@ -3506,7 +3507,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -3529,7 +3530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -3552,7 +3553,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -3575,7 +3576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -3598,7 +3599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -3621,7 +3622,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -3644,7 +3645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -3667,7 +3668,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -3690,7 +3691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -3713,7 +3714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -3736,7 +3737,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -3759,7 +3760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -3782,7 +3783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -3805,7 +3806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -3828,7 +3829,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -3851,7 +3852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -3874,7 +3875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -3897,7 +3898,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -3920,7 +3921,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -3943,7 +3944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>104</v>
       </c>
@@ -3966,7 +3967,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -3989,7 +3990,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -4012,7 +4013,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -4035,7 +4036,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>109</v>
       </c>
@@ -4058,7 +4059,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -4081,7 +4082,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>113</v>
       </c>
@@ -4104,7 +4105,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>16</v>
       </c>
@@ -4127,7 +4128,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -4150,7 +4151,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -4173,7 +4174,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>9</v>
       </c>
@@ -4196,7 +4197,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>9</v>
       </c>
@@ -4219,7 +4220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>9</v>
       </c>
@@ -4242,7 +4243,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -4265,7 +4266,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>9</v>
       </c>
@@ -4288,7 +4289,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -4311,7 +4312,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>9</v>
       </c>
@@ -4334,7 +4335,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>9</v>
       </c>
@@ -4357,7 +4358,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>9</v>
       </c>
@@ -4380,7 +4381,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -4403,7 +4404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>9</v>
       </c>
@@ -4426,7 +4427,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>33</v>
       </c>
@@ -4449,7 +4450,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>9</v>
       </c>
@@ -4472,7 +4473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>9</v>
       </c>
@@ -4495,7 +4496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>9</v>
       </c>
@@ -4518,7 +4519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>9</v>
       </c>
@@ -4541,7 +4542,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>9</v>
       </c>
@@ -4564,7 +4565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>9</v>
       </c>
@@ -4587,7 +4588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>9</v>
       </c>
@@ -4610,7 +4611,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>9</v>
       </c>
@@ -4633,7 +4634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>9</v>
       </c>
@@ -4656,7 +4657,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>9</v>
       </c>
@@ -4679,7 +4680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>68</v>
       </c>
@@ -4702,7 +4703,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>9</v>
       </c>
@@ -4725,7 +4726,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>9</v>
       </c>
@@ -4748,7 +4749,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>9</v>
       </c>
@@ -4771,7 +4772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>142</v>
       </c>
@@ -4794,7 +4795,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>9</v>
       </c>
@@ -4817,7 +4818,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>72</v>
       </c>
@@ -4840,7 +4841,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>9</v>
       </c>
@@ -4863,7 +4864,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>83</v>
       </c>
@@ -4886,7 +4887,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>9</v>
       </c>
@@ -4909,7 +4910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>9</v>
       </c>
@@ -4932,7 +4933,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>9</v>
       </c>
@@ -4955,7 +4956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>9</v>
       </c>
@@ -4978,7 +4979,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>9</v>
       </c>
@@ -5001,7 +5002,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>9</v>
       </c>
@@ -5024,7 +5025,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>153</v>
       </c>
@@ -5047,7 +5048,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>9</v>
       </c>
@@ -5070,7 +5071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>157</v>
       </c>
@@ -5093,7 +5094,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>16</v>
       </c>
@@ -5116,7 +5117,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>9</v>
       </c>
@@ -5139,7 +5140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>9</v>
       </c>
@@ -5162,7 +5163,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>9</v>
       </c>
@@ -5185,7 +5186,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>9</v>
       </c>
@@ -5208,7 +5209,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>9</v>
       </c>
@@ -5231,7 +5232,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>9</v>
       </c>
@@ -5254,7 +5255,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>9</v>
       </c>
@@ -5277,7 +5278,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>9</v>
       </c>
@@ -5300,7 +5301,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>9</v>
       </c>
@@ -5323,7 +5324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>9</v>
       </c>
@@ -5346,7 +5347,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>9</v>
       </c>
@@ -5369,7 +5370,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>9</v>
       </c>
@@ -5392,7 +5393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>33</v>
       </c>
@@ -5415,7 +5416,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>9</v>
       </c>
@@ -5438,7 +5439,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>9</v>
       </c>
@@ -5461,7 +5462,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>9</v>
       </c>
@@ -5484,7 +5485,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>9</v>
       </c>
@@ -5507,7 +5508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>9</v>
       </c>
@@ -5530,7 +5531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>9</v>
       </c>
@@ -5553,7 +5554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>9</v>
       </c>
@@ -5576,7 +5577,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>9</v>
       </c>
@@ -5599,7 +5600,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>9</v>
       </c>
@@ -5622,7 +5623,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>9</v>
       </c>
@@ -5645,7 +5646,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>9</v>
       </c>
@@ -5668,7 +5669,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>9</v>
       </c>
@@ -5691,7 +5692,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>9</v>
       </c>
@@ -5714,7 +5715,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>9</v>
       </c>
@@ -5737,7 +5738,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>9</v>
       </c>
@@ -5760,7 +5761,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>9</v>
       </c>
@@ -5783,7 +5784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>9</v>
       </c>
@@ -5806,7 +5807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>9</v>
       </c>
@@ -5829,7 +5830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>9</v>
       </c>
@@ -5852,7 +5853,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>59</v>
       </c>
@@ -5875,7 +5876,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>9</v>
       </c>
@@ -5898,7 +5899,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>9</v>
       </c>
@@ -5921,7 +5922,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>9</v>
       </c>
@@ -5944,7 +5945,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>9</v>
       </c>
@@ -5967,7 +5968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>9</v>
       </c>
@@ -5990,7 +5991,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>9</v>
       </c>
@@ -6013,7 +6014,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>9</v>
       </c>
@@ -6036,7 +6037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>9</v>
       </c>
@@ -6059,7 +6060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>68</v>
       </c>
@@ -6082,7 +6083,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>9</v>
       </c>
@@ -6105,7 +6106,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>9</v>
       </c>
@@ -6128,7 +6129,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>142</v>
       </c>
@@ -6151,7 +6152,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>9</v>
       </c>
@@ -6174,7 +6175,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>9</v>
       </c>
@@ -6197,7 +6198,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>72</v>
       </c>
@@ -6220,7 +6221,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>9</v>
       </c>
@@ -6243,7 +6244,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>9</v>
       </c>
@@ -6266,7 +6267,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>9</v>
       </c>
@@ -6289,7 +6290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>9</v>
       </c>
@@ -6312,7 +6313,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>9</v>
       </c>
@@ -6335,7 +6336,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>9</v>
       </c>
@@ -6358,7 +6359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>83</v>
       </c>
@@ -6381,7 +6382,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>9</v>
       </c>
@@ -6404,7 +6405,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>9</v>
       </c>
@@ -6427,7 +6428,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>9</v>
       </c>
@@ -6450,7 +6451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>9</v>
       </c>
@@ -6473,7 +6474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>9</v>
       </c>
@@ -6496,7 +6497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>9</v>
       </c>
@@ -6519,7 +6520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>104</v>
       </c>
@@ -6542,7 +6543,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>9</v>
       </c>
@@ -6565,7 +6566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>9</v>
       </c>
@@ -6588,7 +6589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>153</v>
       </c>
@@ -6611,7 +6612,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>9</v>
       </c>
@@ -6634,7 +6635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>9</v>
       </c>
@@ -6657,7 +6658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>9</v>
       </c>
@@ -6680,7 +6681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>9</v>
       </c>
@@ -6703,7 +6704,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>9</v>
       </c>
@@ -6726,7 +6727,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>229</v>
       </c>
@@ -6749,7 +6750,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>9</v>
       </c>
@@ -6772,7 +6773,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>109</v>
       </c>
@@ -6795,7 +6796,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>9</v>
       </c>
@@ -6818,7 +6819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>9</v>
       </c>
@@ -6841,7 +6842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>9</v>
       </c>
@@ -6864,7 +6865,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>235</v>
       </c>
@@ -6887,7 +6888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>16</v>
       </c>
@@ -6910,7 +6911,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>9</v>
       </c>
@@ -6933,7 +6934,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>9</v>
       </c>
@@ -6956,7 +6957,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>9</v>
       </c>
@@ -6979,7 +6980,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>9</v>
       </c>
@@ -7002,7 +7003,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>9</v>
       </c>
@@ -7025,7 +7026,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>9</v>
       </c>
@@ -7048,7 +7049,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>9</v>
       </c>
@@ -7071,7 +7072,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>9</v>
       </c>
@@ -7094,7 +7095,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>9</v>
       </c>
@@ -7117,7 +7118,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>9</v>
       </c>
@@ -7140,7 +7141,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>9</v>
       </c>
@@ -7163,7 +7164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>9</v>
       </c>
@@ -7186,7 +7187,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>9</v>
       </c>
@@ -7209,7 +7210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>9</v>
       </c>
@@ -7232,7 +7233,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>9</v>
       </c>
@@ -7255,7 +7256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>9</v>
       </c>
@@ -7278,7 +7279,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>9</v>
       </c>
@@ -7301,7 +7302,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>9</v>
       </c>
@@ -7324,7 +7325,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>9</v>
       </c>
@@ -7347,7 +7348,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>33</v>
       </c>
@@ -7370,7 +7371,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>9</v>
       </c>
@@ -7393,7 +7394,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>9</v>
       </c>
@@ -7416,7 +7417,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>9</v>
       </c>
@@ -7439,7 +7440,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>9</v>
       </c>
@@ -7462,7 +7463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>9</v>
       </c>
@@ -7485,7 +7486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>9</v>
       </c>
@@ -7508,7 +7509,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>9</v>
       </c>
@@ -7531,7 +7532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>9</v>
       </c>
@@ -7554,7 +7555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>9</v>
       </c>
@@ -7577,7 +7578,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>9</v>
       </c>
@@ -7600,7 +7601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>9</v>
       </c>
@@ -7623,7 +7624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>9</v>
       </c>
@@ -7646,7 +7647,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>9</v>
       </c>
@@ -7669,7 +7670,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>9</v>
       </c>
@@ -7692,7 +7693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>9</v>
       </c>
@@ -7715,7 +7716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>9</v>
       </c>
@@ -7738,7 +7739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>9</v>
       </c>
@@ -7761,7 +7762,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>9</v>
       </c>
@@ -7784,7 +7785,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>9</v>
       </c>
@@ -7807,7 +7808,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>9</v>
       </c>
@@ -7830,7 +7831,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>9</v>
       </c>
@@ -7853,7 +7854,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>9</v>
       </c>
@@ -7876,7 +7877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>9</v>
       </c>
@@ -7899,7 +7900,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>9</v>
       </c>
@@ -7922,7 +7923,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>9</v>
       </c>
@@ -7945,7 +7946,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>9</v>
       </c>
@@ -7968,7 +7969,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>59</v>
       </c>
@@ -7991,7 +7992,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>9</v>
       </c>
@@ -8014,7 +8015,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>9</v>
       </c>
@@ -8037,7 +8038,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>9</v>
       </c>
@@ -8060,7 +8061,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>9</v>
       </c>
@@ -8083,7 +8084,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>9</v>
       </c>
@@ -8106,7 +8107,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>9</v>
       </c>
@@ -8129,7 +8130,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>9</v>
       </c>
@@ -8152,7 +8153,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>9</v>
       </c>
@@ -8175,7 +8176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>142</v>
       </c>
@@ -8198,7 +8199,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>9</v>
       </c>
@@ -8221,7 +8222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>9</v>
       </c>
@@ -8244,7 +8245,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>9</v>
       </c>
@@ -8267,7 +8268,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>9</v>
       </c>
@@ -8290,7 +8291,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>9</v>
       </c>
@@ -8313,7 +8314,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>9</v>
       </c>
@@ -8336,7 +8337,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>72</v>
       </c>
@@ -8359,7 +8360,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>9</v>
       </c>
@@ -8382,7 +8383,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>9</v>
       </c>
@@ -8405,7 +8406,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>9</v>
       </c>
@@ -8428,7 +8429,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>9</v>
       </c>
@@ -8451,7 +8452,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>83</v>
       </c>
@@ -8474,7 +8475,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>9</v>
       </c>
@@ -8497,7 +8498,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>9</v>
       </c>
@@ -8520,7 +8521,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>9</v>
       </c>
@@ -8543,7 +8544,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>9</v>
       </c>
@@ -8566,7 +8567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>104</v>
       </c>
@@ -8589,7 +8590,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>9</v>
       </c>
@@ -8612,7 +8613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>9</v>
       </c>
@@ -8635,7 +8636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>9</v>
       </c>
@@ -8658,7 +8659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>9</v>
       </c>
@@ -8681,7 +8682,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>9</v>
       </c>
@@ -8704,7 +8705,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>153</v>
       </c>
@@ -8727,7 +8728,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>9</v>
       </c>
@@ -8750,7 +8751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>9</v>
       </c>
@@ -8773,7 +8774,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>9</v>
       </c>
@@ -8796,7 +8797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>9</v>
       </c>
@@ -8819,7 +8820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>9</v>
       </c>
@@ -8842,7 +8843,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>9</v>
       </c>
@@ -8865,7 +8866,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>318</v>
       </c>
@@ -8888,7 +8889,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>9</v>
       </c>
@@ -8911,7 +8912,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>9</v>
       </c>
@@ -8934,7 +8935,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>9</v>
       </c>
@@ -8957,7 +8958,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>323</v>
       </c>
@@ -8980,7 +8981,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>9</v>
       </c>
@@ -9003,7 +9004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>9</v>
       </c>
@@ -9026,7 +9027,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>9</v>
       </c>
@@ -9049,7 +9050,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>328</v>
       </c>
@@ -9072,7 +9073,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>16</v>
       </c>
@@ -9095,7 +9096,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>9</v>
       </c>
@@ -9118,7 +9119,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>9</v>
       </c>
@@ -9141,7 +9142,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>33</v>
       </c>
@@ -9164,7 +9165,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>9</v>
       </c>
@@ -9187,7 +9188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>9</v>
       </c>
@@ -9210,7 +9211,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>9</v>
       </c>
@@ -9233,7 +9234,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>9</v>
       </c>
@@ -9256,7 +9257,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>9</v>
       </c>
@@ -9279,7 +9280,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>72</v>
       </c>
@@ -9302,7 +9303,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>9</v>
       </c>
@@ -9325,7 +9326,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>83</v>
       </c>
@@ -9348,7 +9349,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>9</v>
       </c>
@@ -9371,7 +9372,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>9</v>
       </c>
@@ -9394,7 +9395,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>9</v>
       </c>
@@ -9417,7 +9418,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>9</v>
       </c>
@@ -9440,7 +9441,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>9</v>
       </c>
@@ -9463,7 +9464,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>9</v>
       </c>
@@ -9486,7 +9487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>104</v>
       </c>
@@ -9509,7 +9510,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>9</v>
       </c>
@@ -9532,7 +9533,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>344</v>
       </c>
@@ -9555,7 +9556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>16</v>
       </c>
@@ -9578,7 +9579,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>9</v>
       </c>
@@ -9601,7 +9602,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>9</v>
       </c>
@@ -9624,7 +9625,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>9</v>
       </c>
@@ -9647,7 +9648,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>9</v>
       </c>
@@ -9670,7 +9671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>9</v>
       </c>
@@ -9693,7 +9694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>9</v>
       </c>
@@ -9716,7 +9717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>9</v>
       </c>
@@ -9739,7 +9740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>9</v>
       </c>
@@ -9762,7 +9763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>9</v>
       </c>
@@ -9785,7 +9786,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>9</v>
       </c>
@@ -9808,7 +9809,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>9</v>
       </c>
@@ -9831,7 +9832,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>9</v>
       </c>
@@ -9854,7 +9855,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>9</v>
       </c>
@@ -9877,7 +9878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>9</v>
       </c>
@@ -9900,7 +9901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>9</v>
       </c>
@@ -9923,7 +9924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>33</v>
       </c>
@@ -9946,7 +9947,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>9</v>
       </c>
@@ -9969,7 +9970,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>9</v>
       </c>
@@ -9992,7 +9993,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>9</v>
       </c>
@@ -10015,7 +10016,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>9</v>
       </c>
@@ -10038,7 +10039,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>9</v>
       </c>
@@ -10061,7 +10062,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>9</v>
       </c>
@@ -10084,7 +10085,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>9</v>
       </c>
@@ -10107,7 +10108,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>9</v>
       </c>
@@ -10130,7 +10131,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>9</v>
       </c>
@@ -10153,7 +10154,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>9</v>
       </c>
@@ -10176,7 +10177,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>9</v>
       </c>
@@ -10199,7 +10200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>9</v>
       </c>
@@ -10222,7 +10223,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>9</v>
       </c>
@@ -10245,7 +10246,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>9</v>
       </c>
@@ -10268,7 +10269,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>59</v>
       </c>
@@ -10291,7 +10292,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>9</v>
       </c>
@@ -10314,7 +10315,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>9</v>
       </c>
@@ -10337,7 +10338,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>68</v>
       </c>
@@ -10360,7 +10361,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>9</v>
       </c>
@@ -10383,7 +10384,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>9</v>
       </c>
@@ -10406,7 +10407,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>9</v>
       </c>
@@ -10429,7 +10430,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>9</v>
       </c>
@@ -10452,7 +10453,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>9</v>
       </c>
@@ -10475,7 +10476,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>142</v>
       </c>
@@ -10498,7 +10499,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>9</v>
       </c>
@@ -10521,7 +10522,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>72</v>
       </c>
@@ -10544,7 +10545,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>9</v>
       </c>
@@ -10567,7 +10568,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>9</v>
       </c>
@@ -10590,7 +10591,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>9</v>
       </c>
@@ -10613,7 +10614,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>9</v>
       </c>
@@ -10636,7 +10637,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>83</v>
       </c>
@@ -10659,7 +10660,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>9</v>
       </c>
@@ -10682,7 +10683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>9</v>
       </c>
@@ -10705,7 +10706,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>9</v>
       </c>
@@ -10728,7 +10729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>9</v>
       </c>
@@ -10751,7 +10752,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>104</v>
       </c>
@@ -10774,7 +10775,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>9</v>
       </c>
@@ -10797,7 +10798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>9</v>
       </c>
@@ -10820,7 +10821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>109</v>
       </c>
@@ -10843,7 +10844,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>9</v>
       </c>
@@ -10866,7 +10867,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>2888.9940000000001</v>
       </c>
@@ -10889,7 +10890,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>394</v>
       </c>
@@ -10912,7 +10913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>396</v>
       </c>
@@ -10935,7 +10936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>398</v>
       </c>
@@ -10958,7 +10959,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>9</v>
       </c>
@@ -10981,7 +10982,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>9</v>
       </c>
@@ -11004,7 +11005,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>9</v>
       </c>
@@ -11027,7 +11028,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>404</v>
       </c>
@@ -11050,7 +11051,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>9</v>
       </c>
@@ -11073,7 +11074,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>9</v>
       </c>
@@ -11096,7 +11097,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>9</v>
       </c>
@@ -11119,7 +11120,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>409</v>
       </c>
@@ -11142,7 +11143,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>9</v>
       </c>
@@ -11165,7 +11166,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>9</v>
       </c>
@@ -11188,7 +11189,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>9</v>
       </c>
@@ -11211,7 +11212,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>414</v>
       </c>
@@ -11234,7 +11235,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>9</v>
       </c>
@@ -11257,7 +11258,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>9</v>
       </c>
@@ -11280,7 +11281,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>9</v>
       </c>
@@ -11303,7 +11304,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>419</v>
       </c>
@@ -11326,7 +11327,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>9</v>
       </c>
@@ -11349,7 +11350,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>9</v>
       </c>
@@ -11372,7 +11373,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>9</v>
       </c>
@@ -11395,7 +11396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>424</v>
       </c>
@@ -11418,7 +11419,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>9</v>
       </c>
@@ -11441,7 +11442,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>9</v>
       </c>
@@ -11464,7 +11465,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>9</v>
       </c>
@@ -11487,7 +11488,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>429</v>
       </c>
@@ -11510,7 +11511,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>9</v>
       </c>
@@ -11533,7 +11534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>9</v>
       </c>
@@ -11556,7 +11557,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>9</v>
       </c>
@@ -11579,7 +11580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>434</v>
       </c>
@@ -11602,7 +11603,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>9</v>
       </c>
@@ -11625,7 +11626,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>437</v>
       </c>
@@ -11648,7 +11649,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>9</v>
       </c>
@@ -11671,7 +11672,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>440</v>
       </c>
@@ -11694,7 +11695,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>9</v>
       </c>
@@ -11717,7 +11718,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>9</v>
       </c>
@@ -11740,7 +11741,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>9</v>
       </c>
@@ -11763,7 +11764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>445</v>
       </c>
@@ -11786,7 +11787,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>9</v>
       </c>
@@ -11809,7 +11810,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>449</v>
       </c>
@@ -11832,7 +11833,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>9</v>
       </c>
@@ -11855,7 +11856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>452</v>
       </c>
@@ -11878,7 +11879,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>9</v>
       </c>
@@ -11901,7 +11902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>455</v>
       </c>
@@ -11924,7 +11925,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>396</v>
       </c>
@@ -11947,7 +11948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>458</v>
       </c>
@@ -11970,7 +11971,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>9</v>
       </c>
@@ -11993,7 +11994,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>9</v>
       </c>
@@ -12016,7 +12017,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>59</v>
       </c>
@@ -12039,7 +12040,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>9</v>
       </c>
@@ -12062,7 +12063,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>463</v>
       </c>
@@ -12085,7 +12086,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>59</v>
       </c>
@@ -12108,7 +12109,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>9</v>
       </c>
@@ -12131,7 +12132,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>9</v>
       </c>
@@ -12154,7 +12155,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>9</v>
       </c>
@@ -12177,7 +12178,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>9</v>
       </c>
@@ -12200,7 +12201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>9</v>
       </c>
@@ -12223,7 +12224,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>9</v>
       </c>
@@ -12246,7 +12247,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>9</v>
       </c>
@@ -12269,7 +12270,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>473</v>
       </c>
@@ -12292,7 +12293,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>475</v>
       </c>
@@ -12315,7 +12316,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>9</v>
       </c>
@@ -12338,7 +12339,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>9</v>
       </c>
@@ -12361,7 +12362,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>480</v>
       </c>
@@ -12384,7 +12385,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>9</v>
       </c>
@@ -12407,7 +12408,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>483</v>
       </c>
@@ -12430,7 +12431,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>59</v>
       </c>
@@ -12453,7 +12454,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>9</v>
       </c>
@@ -12476,7 +12477,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>9</v>
       </c>
@@ -12499,7 +12500,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>487</v>
       </c>
@@ -12522,7 +12523,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>9</v>
       </c>
@@ -12545,7 +12546,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>9</v>
       </c>
@@ -12568,7 +12569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>9</v>
       </c>
@@ -12591,7 +12592,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>9</v>
       </c>
@@ -12614,7 +12615,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>493</v>
       </c>
@@ -12637,7 +12638,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>9</v>
       </c>
@@ -12660,7 +12661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>496</v>
       </c>
@@ -12683,7 +12684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>487</v>
       </c>
@@ -12706,7 +12707,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>9</v>
       </c>
@@ -12729,7 +12730,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>9</v>
       </c>
@@ -12752,7 +12753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>9</v>
       </c>
@@ -12775,7 +12776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>9</v>
       </c>
@@ -12798,7 +12799,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>9</v>
       </c>
@@ -12821,7 +12822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>9</v>
       </c>
@@ -12844,7 +12845,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>9</v>
       </c>
@@ -12867,7 +12868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>9</v>
       </c>
@@ -12890,7 +12891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>9</v>
       </c>
@@ -12913,7 +12914,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>9</v>
       </c>
@@ -12936,7 +12937,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>9</v>
       </c>
@@ -12959,7 +12960,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>9</v>
       </c>
@@ -12982,7 +12983,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>9</v>
       </c>
@@ -13005,7 +13006,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>9</v>
       </c>
@@ -13028,7 +13029,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>9</v>
       </c>
@@ -13051,7 +13052,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>9</v>
       </c>
@@ -13074,7 +13075,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>9</v>
       </c>
@@ -13097,7 +13098,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>9</v>
       </c>
@@ -13120,7 +13121,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>9</v>
       </c>
@@ -13143,7 +13144,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>9</v>
       </c>
@@ -13166,7 +13167,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>9</v>
       </c>
@@ -13189,7 +13190,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>9</v>
       </c>
@@ -13212,7 +13213,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>493</v>
       </c>
@@ -13235,7 +13236,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>9</v>
       </c>
@@ -13258,7 +13259,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>522</v>
       </c>
@@ -13281,7 +13282,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>524</v>
       </c>
@@ -13304,7 +13305,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>9</v>
       </c>
@@ -13327,7 +13328,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>59</v>
       </c>
@@ -13350,7 +13351,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>9</v>
       </c>
@@ -13373,7 +13374,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>9</v>
       </c>
@@ -13396,7 +13397,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>9</v>
       </c>
@@ -13419,7 +13420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>9</v>
       </c>
@@ -13442,7 +13443,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>9</v>
       </c>
@@ -13465,7 +13466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>9</v>
       </c>
@@ -13488,7 +13489,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>9</v>
       </c>
@@ -13511,7 +13512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>9</v>
       </c>
@@ -13534,7 +13535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>9</v>
       </c>
@@ -13557,7 +13558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>9</v>
       </c>
@@ -13580,7 +13581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>9</v>
       </c>
@@ -13603,7 +13604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>9</v>
       </c>
@@ -13626,7 +13627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>9</v>
       </c>
@@ -13649,7 +13650,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>9</v>
       </c>
@@ -13672,7 +13673,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>9</v>
       </c>
@@ -13695,7 +13696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>9</v>
       </c>
@@ -13718,7 +13719,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>544</v>
       </c>
@@ -13741,7 +13742,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>9</v>
       </c>
@@ -13764,7 +13765,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>547</v>
       </c>
@@ -13787,7 +13788,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>9</v>
       </c>
@@ -13810,7 +13811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>550</v>
       </c>
@@ -13833,7 +13834,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>9</v>
       </c>
@@ -13856,7 +13857,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>142</v>
       </c>
@@ -13879,7 +13880,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>9</v>
       </c>
@@ -13902,7 +13903,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>554</v>
       </c>
@@ -13925,7 +13926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>556</v>
       </c>
@@ -13948,7 +13949,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>9</v>
       </c>
@@ -13971,7 +13972,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>9</v>
       </c>
@@ -13994,7 +13995,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>9</v>
       </c>
@@ -14017,7 +14018,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>9</v>
       </c>
@@ -14040,7 +14041,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>9</v>
       </c>
@@ -14063,7 +14064,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>9</v>
       </c>
@@ -14086,7 +14087,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>9</v>
       </c>
@@ -14109,7 +14110,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>9</v>
       </c>
@@ -14132,7 +14133,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>9</v>
       </c>
@@ -14155,7 +14156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>9</v>
       </c>
@@ -14178,7 +14179,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>9</v>
       </c>
@@ -14201,7 +14202,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>9</v>
       </c>
@@ -14224,7 +14225,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>9</v>
       </c>
@@ -14247,7 +14248,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>9</v>
       </c>
@@ -14270,7 +14271,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>9</v>
       </c>
@@ -14293,7 +14294,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>9</v>
       </c>
@@ -14316,7 +14317,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>574</v>
       </c>
@@ -14339,7 +14340,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>2890</v>
       </c>
@@ -14362,7 +14363,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>2890.951</v>
       </c>
@@ -14385,7 +14386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>579</v>
       </c>
@@ -14408,7 +14409,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>396</v>
       </c>
@@ -14431,7 +14432,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>323</v>
       </c>
@@ -14454,7 +14455,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>9</v>
       </c>
@@ -14477,7 +14478,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>583</v>
       </c>
@@ -14500,7 +14501,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>396</v>
       </c>
@@ -14523,7 +14524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>323</v>
       </c>
@@ -14546,7 +14547,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>9</v>
       </c>
@@ -14569,7 +14570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>9</v>
       </c>
@@ -14592,7 +14593,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>463</v>
       </c>
@@ -14615,7 +14616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>323</v>
       </c>
@@ -14638,7 +14639,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>9</v>
       </c>
